--- a/app/logs/detailed_log.xlsx
+++ b/app/logs/detailed_log.xlsx
@@ -466,16 +466,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Swap action between Truck 1 Tire 0 and Truck 1 Tire 2 with reward 5.</t>
+          <t>Swap action between Truck 0 Tire 0 and Truck 1 Tire 7 with reward 5.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.43</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -487,16 +487,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Swap action between Truck 1 Tire 0 and Truck 1 Tire 2 with reward 5.</t>
+          <t>Swap action between Truck 0 Tire 0 and Truck 1 Tire 7 with reward 5.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -508,7 +508,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9</v>
+        <v>0.57</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -529,7 +529,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -550,19 +550,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 1 Tire 0 and Truck 0 Tire 5 with reward 5.</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9</v>
+        <v>0.57</v>
       </c>
       <c r="E6" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -571,19 +571,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 1 Tire 0 and Truck 0 Tire 5 with reward 5.</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="E7" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -592,19 +592,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Replace action on Truck 1 Tire 6 with reward 5.</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9</v>
+        <v>0.57</v>
       </c>
       <c r="E8" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -613,19 +613,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Replace action on Truck 1 Tire 6 with reward 5.</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="E9" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -634,19 +634,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 0 and Truck 1 Tire 3 with reward 5.</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="E10" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -655,19 +655,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 0 and Truck 1 Tire 3 with reward 5.</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="E11" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -676,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Replace action on Truck 1 Tire 5 with reward 5.</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="E12" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -697,19 +697,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Replace action on Truck 1 Tire 5 with reward 5.</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="E13" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -718,19 +718,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 1 Tire 0 and Truck 1 Tire 2 with reward 5.</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="E14" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -739,19 +739,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 1 Tire 0 and Truck 1 Tire 2 with reward 5.</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="E15" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -760,19 +760,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 2 with reward 5.</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="E16" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -781,19 +781,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 2 with reward 5.</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E17" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -802,19 +802,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 0 and Truck 1 Tire 6 with reward 5.</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -823,19 +823,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 0 and Truck 1 Tire 6 with reward 5.</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E19" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -844,16 +844,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>-10</v>
@@ -865,16 +865,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E21" t="n">
         <v>-10</v>
@@ -886,16 +886,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>-10</v>
@@ -907,16 +907,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E23" t="n">
         <v>-10</v>
@@ -928,16 +928,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>-10</v>
@@ -949,16 +949,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E25" t="n">
         <v>-10</v>
@@ -970,16 +970,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>-10</v>
@@ -991,16 +991,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E27" t="n">
         <v>-10</v>
@@ -1012,16 +1012,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>-10</v>
@@ -1033,16 +1033,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E29" t="n">
         <v>-10</v>
@@ -1054,16 +1054,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>-10</v>
@@ -1075,16 +1075,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E31" t="n">
         <v>-10</v>
@@ -1096,16 +1096,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>-10</v>
@@ -1117,16 +1117,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E33" t="n">
         <v>-10</v>
@@ -1138,16 +1138,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>-10</v>
@@ -1159,16 +1159,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E35" t="n">
         <v>-10</v>
@@ -1180,16 +1180,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>-10</v>
@@ -1201,16 +1201,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E37" t="n">
         <v>-10</v>
@@ -1222,16 +1222,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>-10</v>
@@ -1243,16 +1243,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E39" t="n">
         <v>-10</v>
@@ -1264,16 +1264,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.05 0.6  0.7  0.7  0.7  0.7  0.4  0.3  0.3  0.5 ]</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>-10</v>
@@ -1285,16 +1285,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[0.01 0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9  0.9 ]</t>
+          <t>[0.5  0.76 0.97 0.87 0.57 0.07 0.04 0.43 0.33 0.3 ]</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 6 with reward -10.</t>
+          <t>Swap action between Truck 0 Tire 1 and Truck 0 Tire 4 with reward -10.</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E41" t="n">
         <v>-10</v>
